--- a/products.xlsx
+++ b/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -91,7 +91,10 @@
     <t xml:space="preserve">is_pack</t>
   </si>
   <si>
-    <t xml:space="preserve">image</t>
+    <t xml:space="preserve">cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallery</t>
   </si>
   <si>
     <t xml:space="preserve">shop_id</t>
@@ -120,6 +123,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ginger(</t>
     </r>
@@ -128,6 +132,7 @@
         <sz val="10"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">আদা</t>
     </r>
@@ -136,6 +141,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -144,15 +150,12 @@
     <t xml:space="preserve">Daffodil International University Administrative Building, Dhaka 1215, Bangladesh</t>
   </si>
   <si>
-    <t xml:space="preserve">(23.752707143927875,90.37769794464111)</t>
+    <t xml:space="preserve">23.752707143927875,90.37769794464111</t>
   </si>
   <si>
     <t xml:space="preserve">E-1639214002021</t>
   </si>
   <si>
-    <t xml:space="preserve">{"cover": "images(27)-1639214112984.jpeg", "gallery": []}</t>
-  </si>
-  <si>
     <t xml:space="preserve">77b68d0e-73b8-453c-9c4e-4b4c133539ce</t>
   </si>
   <si>
@@ -160,82 +163,6 @@
   </si>
   <si>
     <t xml:space="preserve">ca6a90e0-3a53-43ae-b262-a067d331b9cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresh soybean oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresh soybean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-1639206531897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"cover": "images(18)-1639206600279.jpeg", "gallery": []}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Garlic(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Lohit Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">রসুন</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">E-1639214222944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"cover": "images(28)-1639214280784.jpeg", "gallery": []}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Egg(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Lohit Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ডিম</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">E-1639214372386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"cover": "licensed-image-1639214447231.jpeg", "gallery": []}</t>
   </si>
 </sst>
 </file>
@@ -245,11 +172,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,8 +196,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Lohit Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -314,8 +248,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,24 +269,103 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1403280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>938880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24807600" y="163080"/>
+          <a:ext cx="1287000" cy="938160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>196920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1566000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>851760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28430280" y="265320"/>
+          <a:ext cx="1369080" cy="748800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y13" activeCellId="0" sqref="Y13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.02"/>
@@ -367,12 +384,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="50.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="34.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="34.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="34.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="34.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="34.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="34.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,10 +463,10 @@
       <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="0" t="s">
@@ -469,34 +487,37 @@
       <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>3</v>
@@ -540,289 +561,19 @@
       <c r="W2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AE2" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>148</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>148</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>148</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>135</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>135</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>135</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -834,5 +585,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -34,16 +34,16 @@
     <t xml:space="preserve">location</t>
   </si>
   <si>
-    <t xml:space="preserve">geo_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta_keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta_title</t>
+    <t xml:space="preserve">geoLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaKeywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaTitle</t>
   </si>
   <si>
     <t xml:space="preserve">reference</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">rating</t>
   </si>
   <si>
-    <t xml:space="preserve">low_stock_threshold</t>
+    <t xml:space="preserve">lowStockThreshold</t>
   </si>
   <si>
     <t xml:space="preserve">price</t>
@@ -70,25 +70,25 @@
     <t xml:space="preserve">weight</t>
   </si>
   <si>
-    <t xml:space="preserve">purchased_price</t>
+    <t xml:space="preserve">purchasedPrice</t>
   </si>
   <si>
     <t xml:space="preserve">discount</t>
   </si>
   <si>
-    <t xml:space="preserve">wholesale_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_shipping_cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on_sale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_pack</t>
+    <t xml:space="preserve">wholesalePrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additionalShippingCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onSale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isVirtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isPack</t>
   </si>
   <si>
     <t xml:space="preserve">cover</t>
@@ -97,22 +97,16 @@
     <t xml:space="preserve">gallery</t>
   </si>
   <si>
-    <t xml:space="preserve">shop_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merchant_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_refundable</t>
+    <t xml:space="preserve">shopID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categoryID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isRefundable</t>
   </si>
   <si>
     <t xml:space="preserve">hasProductAttribute</t>
@@ -150,7 +144,7 @@
     <t xml:space="preserve">Daffodil International University Administrative Building, Dhaka 1215, Bangladesh</t>
   </si>
   <si>
-    <t xml:space="preserve">23.752707143927875,90.37769794464111</t>
+    <t xml:space="preserve">[23.752707143927875,90.37769794464111]</t>
   </si>
   <si>
     <t xml:space="preserve">E-1639214002021</t>
@@ -276,13 +270,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>116280</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1403280</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>938880</xdr:rowOff>
+      <xdr:rowOff>939240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -295,7 +289,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24807600" y="163080"/>
+          <a:off x="24807600" y="163440"/>
           <a:ext cx="1287000" cy="938160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -313,13 +307,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>196920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1566000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>851760</xdr:rowOff>
+      <xdr:rowOff>852120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -332,7 +326,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28430280" y="265320"/>
+          <a:off x="28430280" y="265680"/>
           <a:ext cx="1369080" cy="748800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -353,10 +347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,10 +381,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="34.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="34.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="34.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="17.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,40 +476,34 @@
       <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>3</v>
@@ -562,18 +548,18 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -150,10 +150,10 @@
     <t xml:space="preserve">E-1639214002021</t>
   </si>
   <si>
-    <t xml:space="preserve">77b68d0e-73b8-453c-9c4e-4b4c133539ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e8d6e611-3ec9-464e-b834-97e3d773a473</t>
+    <t xml:space="preserve">497b8169-eef5-4534-8112-9fb1d511dc5c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1350671-b8f8-4b68-a4cf-9cf2264e4391</t>
   </si>
   <si>
     <t xml:space="preserve">ca6a90e0-3a53-43ae-b262-a067d331b9cd</t>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -187,11 +187,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -247,7 +242,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,9 +269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1403280</xdr:colOff>
+      <xdr:colOff>1402920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>939240</xdr:rowOff>
+      <xdr:rowOff>938880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -289,8 +284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24807600" y="163440"/>
-          <a:ext cx="1287000" cy="938160"/>
+          <a:off x="24807960" y="163440"/>
+          <a:ext cx="1286640" cy="937800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -311,9 +306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>1566000</xdr:colOff>
+      <xdr:colOff>1565640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>852120</xdr:rowOff>
+      <xdr:rowOff>851760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -326,8 +321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28430280" y="265680"/>
-          <a:ext cx="1369080" cy="748800"/>
+          <a:off x="28430640" y="265680"/>
+          <a:ext cx="1368720" cy="748440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -349,11 +344,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB3" activeCellId="0" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -119,6 +119,64 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Ginger (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">আদা</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ginger (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">আদা</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)---</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Ginger(</t>
     </r>
     <r>
@@ -150,13 +208,13 @@
     <t xml:space="preserve">E-1639214002021</t>
   </si>
   <si>
-    <t xml:space="preserve">497b8169-eef5-4534-8112-9fb1d511dc5c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1350671-b8f8-4b68-a4cf-9cf2264e4391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca6a90e0-3a53-43ae-b262-a067d331b9cd</t>
+    <t xml:space="preserve">4b8b7e79-cd3e-4416-876d-603263795fa7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ab0b601-1554-4750-9f96-bd8de82c6e28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de985fff-cf95-47d1-b0d0-fe6faa0ccef8</t>
   </si>
 </sst>
 </file>
@@ -344,8 +402,8 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB3" activeCellId="0" sqref="AB3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,28 +535,28 @@
         <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>3</v>
@@ -543,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="0" t="n">
         <v>0</v>
